--- a/Bangphancongdoancautrucdulieuvagiaithuat.xlsx
+++ b/Bangphancongdoancautrucdulieuvagiaithuat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -191,9 +191,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,6 +207,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,24 +529,24 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="140.7109375" customWidth="1"/>
     <col min="3" max="3" width="53.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -566,194 +566,202 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>43110</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
         <v>43141</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>43200</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
         <v>43230</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>43291</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
         <v>43322</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>43383</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
         <v>43444</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
         <v>43142</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>43231</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6">
         <v>43262</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>43262</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/Bangphancongdoancautrucdulieuvagiaithuat.xlsx
+++ b/Bangphancongdoancautrucdulieuvagiaithuat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DoAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Viết báo cáo chương trình.</t>
+  </si>
+  <si>
+    <t>13/10/2018</t>
   </si>
 </sst>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +630,9 @@
       <c r="E4" s="6">
         <v>43200</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>43141</v>
+      </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -646,7 +651,9 @@
       <c r="E5" s="6">
         <v>43291</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>43230</v>
+      </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -665,7 +672,9 @@
       <c r="E6" s="6">
         <v>43383</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>43322</v>
+      </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -684,7 +693,9 @@
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
